--- a/template_examples/wes_bam_template.xlsx
+++ b/template_examples/wes_bam_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="5000" windowWidth="33720" windowHeight="20380"/>
+    <workbookView xWindow="-41400" yWindow="6560" windowWidth="33720" windowHeight="20380"/>
   </bookViews>
   <sheets>
     <sheet name="WES" sheetId="1" r:id="rId1"/>
@@ -395,13 +395,13 @@
     <t>CTTTPP121.00</t>
   </si>
   <si>
-    <t>/local/path/to/fwd.1.1.1.bam</t>
-  </si>
-  <si>
     <t>BAM file</t>
   </si>
   <si>
-    <t>/local/path/to/fwd.1.2.1.bam</t>
+    <t>gs://local/path/to/fwd.1.1.1.bam</t>
+  </si>
+  <si>
+    <t>gs://local/path/to/fwd.1.2.1.bam</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
   <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -966,7 +966,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>18</v>
@@ -983,7 +983,7 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="5">
         <v>40179</v>

--- a/template_examples/wes_bam_template.xlsx
+++ b/template_examples/wes_bam_template.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlindsay/Documents/Code/cidc/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7FE87-7A20-E44F-A679-40E090B6BAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41400" yWindow="6560" windowWidth="33720" windowHeight="20380"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WES" sheetId="1" r:id="rId1"/>
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
     <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -398,16 +399,16 @@
     <t>BAM file</t>
   </si>
   <si>
-    <t>gs://local/path/to/fwd.1.1.1.bam</t>
-  </si>
-  <si>
-    <t>gs://local/path/to/fwd.1.2.1.bam</t>
+    <t>gs://local/path/to/fwd.1.1.1.bam,gs://local/path/to/fwd.1.1.1_2.bam</t>
+  </si>
+  <si>
+    <t>gs://local/path/to/fwd.1.2.1.bam,gs://local/path/to/fwd.1.2.1_2.bam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -822,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
@@ -846,7 +847,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -859,7 +860,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -872,7 +873,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -885,7 +886,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -898,7 +899,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -911,7 +912,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -924,7 +925,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -937,7 +938,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2005,25 +2006,25 @@
     <mergeCell ref="B11:E11"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Express Somatic Human WES (Deep Coverage) v1.1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Hyper Prep ICE Exome Express: 1.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Illumina - HiSeq 2500,Illumina - HiSeq 3000,Illumina - NextSeq 550,Illumina - HiSeq 4000,Illumina - NovaSeq 6000"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Paired,Single"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"whole_exome_illumina_coding_v1"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="D13:D212">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="D13:D212" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>AND(ISNUMBER(D13:D212),LEFT(CELL("format",D13:D212),1)="D")</formula1>
     </dataValidation>
   </dataValidations>
@@ -2033,7 +2034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2043,17 +2044,17 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2250,7 +2251,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>

--- a/template_examples/wes_bam_template.xlsx
+++ b/template_examples/wes_bam_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7FE87-7A20-E44F-A679-40E090B6BAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FCB52B-0439-7042-903F-5FA727077D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WES" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -161,7 +153,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Path to a file on a user's computer.</t>
+          <t>A comma-separated list of paths to files on a user's computer.
+In .bam format</t>
         </r>
       </text>
     </comment>
@@ -196,20 +189,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="65">
   <si>
     <t>#t</t>
   </si>
   <si>
-    <t>Metadata file for wes</t>
+    <t>Metadata file for wes [bam]</t>
   </si>
   <si>
     <t>#p</t>
   </si>
   <si>
-    <t>Assay run id</t>
-  </si>
-  <si>
     <t>Protocol identifier</t>
   </si>
   <si>
@@ -246,10 +236,7 @@
     <t>Cimac id</t>
   </si>
   <si>
-    <t>Forward fastq</t>
-  </si>
-  <si>
-    <t>Reverse fastq</t>
+    <t>Bam file</t>
   </si>
   <si>
     <t>Sequencing date</t>
@@ -267,9 +254,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>User defined unique identifier for this assay run.</t>
-  </si>
-  <si>
     <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
   </si>
   <si>
@@ -330,7 +314,7 @@
     <t>E.g. 'CTTTP01A1.00'</t>
   </si>
   <si>
-    <t>Path to a file on a user's computer.</t>
+    <t>A comma-separated list of paths to files on a user's computer.</t>
   </si>
   <si>
     <t xml:space="preserve">String: date </t>
@@ -393,13 +377,10 @@
     <t>CTTTPP111.00</t>
   </si>
   <si>
+    <t>gs://local/path/to/fwd.1.1.1.bam,gs://local/path/to/fwd.1.1.1_2.bam</t>
+  </si>
+  <si>
     <t>CTTTPP121.00</t>
-  </si>
-  <si>
-    <t>BAM file</t>
-  </si>
-  <si>
-    <t>gs://local/path/to/fwd.1.1.1.bam,gs://local/path/to/fwd.1.1.1_2.bam</t>
   </si>
   <si>
     <t>gs://local/path/to/fwd.1.2.1.bam,gs://local/path/to/fwd.1.2.1_2.bam</t>
@@ -516,10 +497,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,9 +564,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -613,14 +594,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -648,6 +646,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -826,36 +841,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="100" width="30.6640625" customWidth="1"/>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -865,10 +880,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -878,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -891,10 +906,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -904,10 +919,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -917,10 +932,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -930,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>100</v>
@@ -943,50 +958,50 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="5">
+        <v>62</v>
+      </c>
+      <c r="D13" s="6">
         <v>40179</v>
       </c>
       <c r="E13">
@@ -995,15 +1010,15 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="5">
+        <v>64</v>
+      </c>
+      <c r="D14" s="6">
         <v>40179</v>
       </c>
       <c r="E14">
@@ -1012,992 +1027,992 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2046,12 +2061,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2059,10 +2074,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2073,6 +2088,9 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2081,13 +2099,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2095,13 +2113,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2109,13 +2127,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2123,13 +2141,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2137,13 +2155,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2151,28 +2166,31 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2181,13 +2199,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -2195,10 +2210,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -2206,32 +2221,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2253,74 +2246,74 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/wes_bam_template.xlsx
+++ b/template_examples/wes_bam_template.xlsx
@@ -594,7 +594,7 @@
     <row r="1" ht="16" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="5" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="2" ht="17" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="3" ht="17" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="4" ht="33" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="5" ht="17" customHeight="1" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="6" ht="17" customHeight="1" thickBot="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -704,7 +704,7 @@
     <row r="7" ht="17" customHeight="1" thickBot="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -723,7 +723,7 @@
     <row r="8" ht="17" customHeight="1" thickBot="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
     <row r="9" ht="17" customHeight="1" thickBot="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
@@ -775,7 +775,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -802,7 +802,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -848,1386 +848,1386 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/wes_bam_template.xlsx
+++ b/template_examples/wes_bam_template.xlsx
@@ -587,7 +587,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -756,7 +756,6 @@
       <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
@@ -2270,7 +2269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2278,6 +2277,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -2552,7 +2552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2560,6 +2560,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>

--- a/template_examples/wes_bam_template.xlsx
+++ b/template_examples/wes_bam_template.xlsx
@@ -149,7 +149,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -201,12 +201,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="78">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
   <si>
-    <t xml:space="preserve">Metadata file for wes [bam]</t>
+    <t xml:space="preserve">Wes [bam] assay template</t>
   </si>
   <si>
     <t xml:space="preserve">#preamble</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">Sequencer Model, e.g. HiSeq 2500, NextSeq, NovaSeq.</t>
   </si>
   <si>
-    <t xml:space="preserve">E.g. 'Illumina - HiSeq 2500'</t>
+    <t xml:space="preserve">E.g. 'Adaptive'</t>
   </si>
   <si>
     <t xml:space="preserve">Indicates if the sequencing was performed paired or single ended.</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
   </si>
   <si>
-    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
   </si>
   <si>
     <t xml:space="preserve">E.g. 'CTTTP01A1.00'</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">DFCI</t>
   </si>
   <si>
-    <t xml:space="preserve">Illumina - HiSeq 2500</t>
+    <t xml:space="preserve">Adaptive</t>
   </si>
   <si>
     <t xml:space="preserve">Mount Sinai</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">KAPA HyperPrep</t>
   </si>
   <si>
-    <t xml:space="preserve">Illumina - HiSeq 3000</t>
+    <t xml:space="preserve">Illumina - HiSeq 2500</t>
   </si>
   <si>
     <t xml:space="preserve">Single</t>
@@ -404,13 +404,31 @@
     <t xml:space="preserve">Stanford</t>
   </si>
   <si>
+    <t xml:space="preserve">TWIST Custom Panel PN 101042</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDT duplex UMI adapters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina - HiSeq 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWIST Dana Farber Custom Panel</t>
   </si>
   <si>
     <t xml:space="preserve">MD Anderson</t>
   </si>
   <si>
+    <t xml:space="preserve">TWIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAPA HyperPrep with IDT duplex UMI adapters</t>
+  </si>
+  <si>
     <t xml:space="preserve">Illumina - HiSeq 4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agilent SS Human All Exon V4</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina - NovaSeq 6000</t>
@@ -559,7 +577,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -578,6 +596,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -667,16 +689,16 @@
   </sheetPr>
   <dimension ref="A1:E2012"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -685,7 +707,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -707,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
@@ -718,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
@@ -729,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>2</v>
       </c>
@@ -740,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>2</v>
       </c>
@@ -751,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>2</v>
       </c>
@@ -762,7 +784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>2</v>
       </c>
@@ -801,37 +823,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="6" t="n">
         <v>40179</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="6" t="n">
         <v>40179</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10832,7 +10854,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="true" error="Please enter date in format mm/dd/yyyy" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D15:D2012" type="custom">
-      <formula1>AND(ISNUMBER(D15:D2014),LEFT(CELL("format",D15:D2014),1)="D")</formula1>
+      <formula1>AND(ISNUMBER(D13:D2012),LEFT(CELL("format",D13:D2012),1)="D")</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -10855,25 +10877,25 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B13:E14 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="6" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -10884,7 +10906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -10898,7 +10920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -10912,7 +10934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -10926,7 +10948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -10940,7 +10962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -10954,7 +10976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -10965,7 +10987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -10979,7 +11001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -11048,18 +11070,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B13:E14 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
@@ -11123,29 +11145,61 @@
       <c r="B4" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>69</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>69</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
